--- a/OnBoard/output/trust/catch/Catch_Trust_6.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_6.xlsx
@@ -1884,7 +1884,7 @@
         <v>0.418</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37">
         <v>78.56690909090909</v>
@@ -1966,7 +1966,7 @@
         <v>0.078</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39">
         <v>78.56690909090909</v>
@@ -2622,7 +2622,7 @@
         <v>0.762</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I55">
         <v>78.56690909090909</v>
@@ -2786,7 +2786,7 @@
         <v>0.222</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I59">
         <v>78.56690909090909</v>
